--- a/GovData/profiles/research_hub_data.xlsx
+++ b/GovData/profiles/research_hub_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wshyar/Documents/Proj/CCDH/GovData/profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE9FB05-4F4C-3548-9AB4-DFD1178F0222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFA6045-0776-0644-8B50-5AD4C92D745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Profiles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
